--- a/similarities/split_global/harmonic_similarity_timestamps_384.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_384.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,651 +484,713 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.860000', '0:00:27.060000')]</t>
+          <t>('0:00:12.680000', '0:00:20.200000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.420000', '0:00:15.600000')]</t>
+          <t>('0:00:15.660000', '0:00:39.960000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=20.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=12.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=10.42']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=15.66</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:05.680000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A', 'D']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:55.860352', '0:01:06.646022')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:38.543000', '0:01:03.135000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=38.543']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>isophonics_266</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['E', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['B', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:01:29.915646', '0:01:37.020952')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:00:32.669000', '0:00:54.729000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-266#t=89.915646</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=32.669</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['E', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['E/4', 'A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:09.305410', '0:00:13.723731')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+          <t>('0:00:06.779000', '0:00:11.273000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=9.30541</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=6.779</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.360000', '0:00:04.740000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:00.380000', '0:00:03.700000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:10.360000')]</t>
+          <t>('0:00:27.460000', '0:00:36.020000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:01:41.849092', '0:01:46.934263')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:02:22.380000', '0:02:25.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=101.849092</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=142.38</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:23.040000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:01:03.543000')]</t>
+          <t>('0:00:43.140000', '0:01:00.240000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:08.225000', '0:02:27.191000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.922018', '0:00:23.876485')]</t>
+          <t>('0:00:08.158789', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=128.225']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=1.922018']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:07.700000', '0:01:14.300000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+          <t>('0:02:08.760000', '0:02:13.560000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=67.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'A:maj', 'D:maj']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:03:08.260000', '0:03:12.260000')]</t>
+          <t>('0:01:22.500000', '0:01:30.740000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:59.331000', '0:01:05.538000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=188.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=82.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=59.331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1138,32 +1200,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb'], ['Bb', 'F:7', 'Bb'], ['C:min', 'F:7', 'Bb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'D:7/C', 'G:maj/B'], ['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.950000', '0:00:15.800000'), ('0:00:07.590000', '0:00:14.680000'), ('0:00:26.110000', '0:00:31.880000')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:53.320000', '0:01:01.840000'), ('0:01:10.060000', '0:01:20.280000'), ('0:00:05.440000', '0:00:12.420000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=11.95', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.11']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1172,6 +1234,8 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
